--- a/metro.xlsx
+++ b/metro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S/4.00</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S/6.97</t>
+          <t>S/8.90</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S/. 19.90</t>
+          <t>S/. 21.90</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S/11.40</t>
+          <t>S/11.50</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S/2.92</t>
+          <t>S/3.35</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S/3.90</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S/3.99</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S/8.99</t>
+          <t>S/11.99</t>
         </is>
       </c>
     </row>
@@ -561,1238 +561,1238 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S/. 14.90</t>
+          <t>S/. 18.80</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trozos de Atún Primor 170g</t>
+          <t>Sal de Cocina Marina Emsal Bolsa 1 kg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S/5.60</t>
+          <t>S/2.20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sal de Cocina Marina Emsal Bolsa 1 kg</t>
+          <t>Galletas Sabor Vainilla Field Paquete 37 g Pack 6 unid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S/2.20</t>
+          <t>S/4.10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Galletas Sabor Vainilla Field Paquete 37 g Pack 6 unid</t>
+          <t>Galletas San Jorge Soda Pack 7un</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S/3.35</t>
+          <t>S/3.60</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Galletas San Jorge Soda Pack 7un</t>
+          <t>Galletas de Soda Field Paquete 34 g Pack 6 unid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S/3.60</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Galletas de Soda Field Paquete 34 g Pack 6 unid</t>
+          <t>Aceite Vegetal Primor Clásico 900ml</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S/2.16</t>
+          <t>S/11.40</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aceite Vegetal Primor Clásico 900ml</t>
+          <t>Sixpack Galletas Coronita con Crema de Chocolate 36g</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S/11.40</t>
+          <t>S/3.99</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Coronita con Crema de Chocolate 36g</t>
+          <t>Filete De Atún En Aceite Vegetal Cuisine&amp;Co Lata 170 g</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S/3.19</t>
+          <t>S/4.60</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Filete De Atún En Aceite Vegetal Cuisine&amp;Co Lata 170 g</t>
+          <t>Arroz Extra Añejo Cuisine&amp;Co Bolsa 5 kg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S/4.28</t>
+          <t>S/. 19.90</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Filete De Atún En Agua y Sal Cuisine&amp;Co Lata 170 g</t>
+          <t>Lenteja Bebé Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S/4.28</t>
+          <t>S/3.90</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Leche Condensada Cuisine &amp; Co Lata 397g</t>
+          <t>Aceite Vegetal Máxima 900ml</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S/4.34</t>
+          <t>S/8.60</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Arroz Extra Añejo Cuisine&amp;Co Bolsa 5 kg</t>
+          <t>Aceite de Soya Sao 900ml</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S/. 15.74</t>
+          <t>S/8.90</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Arroz Extra Natural Gran Chalan Bolsa 5 kg</t>
+          <t>Arroz Faraon Extra Añejo Naranja Bolsa 5 kg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S/. 18.90</t>
+          <t>S/. 23.59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Arveja Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Frejol Canario Maxima Bolsa 500 g</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S/2.70</t>
+          <t>S/6.40</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lenteja Bebé Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Trozos de Atún Primor 170g</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S/3.67</t>
+          <t>S/5.60</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aceite Vegetal Máxima 900ml</t>
+          <t>Filete de Atún Primor 170g</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S/7.90</t>
+          <t>S/5.60</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aceite de Soya Sao 900ml</t>
+          <t>Salsa Roja Completa Don Vittorio 400g</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S/8.99</t>
+          <t>S/5.90</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Arroz Faraon Extra Añejo Naranja Bolsa 5 kg</t>
+          <t>Sal de Mesa Marina Emsal Bolsa 1 kg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S/. 23.59</t>
+          <t>S/2.20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lenteja Maxima Bolsa 500 g</t>
+          <t>Mayonesa AlaCena 950g</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S/3.95</t>
+          <t>S/18.70</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Frejol Canario Maxima Bolsa 500 g</t>
+          <t>Sémola Molitalia Bolsa 200 g</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S/6.40</t>
+          <t>S/1.39</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Filete de Atún Primor 170g</t>
+          <t>Sixpack Galletas Margarita 46.5g</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S/5.60</t>
+          <t>S/3.79</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Salsa Roja Completa Don Vittorio 400g</t>
+          <t>Galletas Morochas 30g Pack 6un</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S/5.90</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Salsa de Tomate Pomarola 145g</t>
+          <t>Sixpack Galletas Saladas Ritz Sabor Original 22.4g</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S/1.65</t>
+          <t>S/3.40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sal de Mesa Marina Emsal Bolsa 1 kg</t>
+          <t>Cabello de Ángel Nro 24 Molitalia Bolsa 250 g</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S/2.20</t>
+          <t>S/1.40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mayonesa AlaCena 950g</t>
+          <t>Caldo de Gallina Doña Gusta Caja 6un</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S/16.70</t>
+          <t>S/1.59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Margarita 46.5g</t>
+          <t>Trigo Mote Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S/3.79</t>
+          <t>S/3.60</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Galletas Morochas 30g Pack 6un</t>
+          <t>Quinua Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S/3.90</t>
+          <t>S/8.39</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Saladas Ritz Sabor Original 22.4g</t>
+          <t>Maíz Pop Corn Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S/2.72</t>
+          <t>S/4.30</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cabello de Ángel Nro 24 Molitalia Bolsa 250 g</t>
+          <t>Lenteja Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S/1.40</t>
+          <t>S/5.80</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Caldo de Gallina Doña Gusta Caja 6un</t>
+          <t>Frijol Canario Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S/1.59</t>
+          <t>S/8.30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Papa Seca Costeño Bolsa 500 g</t>
+          <t>Harina Preparada Blanca Flor 1kg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S/3.99</t>
+          <t>S/9.90</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Trigo Mote Costeño Bolsa 500 g</t>
+          <t>Fideo Linguini Grosso Don Vittorio 950g</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S/2.52</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Quinua Costeño Bolsa 500 g</t>
+          <t>Fideo Spaghetti Don Vittorio 450g</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S/5.87</t>
+          <t>S/3.50</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Maíz Pop Corn Costeño Bolsa 500 g</t>
+          <t>Filete de Atún en Aceite Florida 150g</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S/3.01</t>
+          <t>S/5.90</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lenteja Costeño Bolsa 500 g</t>
+          <t>Hongos y Laurel Cuisine &amp; Co 10g</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S/4.06</t>
+          <t>S/2.30</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Frijol Canario Costeño Bolsa 500 g</t>
+          <t>Pack x6 Galletas Rellenas Charada 37.8g</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S/5.81</t>
+          <t>S/3.99</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Harina Sin Preparar Favorita 1kg</t>
+          <t>Sillao Cuisine &amp; Co 500ml</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S/5.50</t>
+          <t>S/3.40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Harina Preparada Blanca Flor 1kg</t>
+          <t>Lentejón Bolsa 454 g</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S/9.90</t>
+          <t>S/. 4.69</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fideo Linguini Grosso Don Vittorio 950g</t>
+          <t>Alverja Verde Tesoro del Campo Bolsa 350 g</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S/4.00</t>
+          <t>S/2.85</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fideo Fettuccini Don Vittorio 950g</t>
+          <t>Puré de Papas Cuisine &amp; Co Bolsa 125 g</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S/4.00</t>
+          <t>S/2.99</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fideo Spaghetti Don Vittorio 450g</t>
+          <t>Filete De Atún En Agua y Sal Cuisine&amp;Co Lata 170 g</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S/3.50</t>
+          <t>S/4.60</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Filete de Atún en Aceite Florida 150g</t>
+          <t>Harina Cuisine &amp; Co Preparada Bolsa 1 Kg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S/5.90</t>
+          <t>S/5.70</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pack x6 Galletas Rellenas Charada 37.8g</t>
+          <t>Ketchup Cuisine &amp; Co Doypack Con Tapón 380 g</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S/3.19</t>
+          <t>S/5.80</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sillao Cuisine &amp; Co 500ml</t>
+          <t>Arroz Extra Natural Gran Chalan Bolsa 5 kg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S/2.55</t>
+          <t>S/. 18.90</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lentejón Bolsa 454 g</t>
+          <t>Pastina Rigatoni Don Vittorio 500g</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S/. 4.69</t>
+          <t>S/3.30</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Alverja Verde Tesoro del Campo Bolsa 350 g</t>
+          <t>Pastina Tornillo Don Vittorio 500g</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S/2.85</t>
+          <t>S/3.30</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Harina Cuisine &amp; Co Preparada Bolsa 1 Kg</t>
+          <t>Salsa de Tomate Nicolini 160g</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S/4.80</t>
+          <t>S/1.40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pasta de Tomate Cuisine &amp; Co Doypack 100 g</t>
+          <t>Filete de Atún en Agua Florida 140g</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S/1.12</t>
+          <t>S/5.90</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ketchup Cuisine &amp; Co Doypack Con Tapón 380 g</t>
+          <t>Filete de Atún en Aceite Vegetal Metro Lata 170 g</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S/4.35</t>
+          <t>S/4.90</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pastina Rigatoni Don Vittorio 500g</t>
+          <t>Frijol Panamito Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S/3.30</t>
+          <t>S/3.90</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pastina Tornillo Don Vittorio 500g</t>
+          <t>Maíz Pop Corn Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S/3.30</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Salsa de Tomate Nicolini 160g</t>
+          <t>Arveja Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S/1.40</t>
+          <t>S/2.90</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Filete de Atún en Agua Florida 140g</t>
+          <t>Quinua Máxima Bolsa 500 g</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S/5.90</t>
+          <t>S/7.30</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Filete de Atún en Aceite Vegetal Metro Lata 170 g</t>
+          <t>Duraznos en Almíbar Cuisine &amp; Co Lata 820 gr</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S/4.90</t>
+          <t>S/7.99</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frijol Panamito Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Arroz Faraon Extra Añejo Naranja Bolsa 10 kg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S/3.67</t>
+          <t>S/. 37.95</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Maíz Pop Corn Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Mostaza Libbys Doypack 200 g</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S/2.55</t>
+          <t>S/3.99</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Quinua Máxima Bolsa 500 g</t>
+          <t>Galletas Soda Cuisine &amp; Co Pack 6 unid 40 gr</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S/7.30</t>
+          <t>S/3.20</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Duraznos en Almíbar Cuisine &amp; Co Lata 820 gr</t>
+          <t>Lenteja Maxima Bolsa 500 g</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S/6.97</t>
+          <t>S/3.95</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mostaza Libbys Doypack 200 g</t>
+          <t>Fideos Fusilli Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S/3.99</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Galletas Soda Cuisine &amp; Co Pack 6 unid 40 gr</t>
+          <t>Chuño Universal Bolsa 180 g</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S/2.40</t>
+          <t>S/2.95</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pallar Maxima Bolsa 500 g</t>
+          <t>Harina Preparada Nicolini 1kg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S/5.95</t>
+          <t>S/6.20</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Fideos Fusilli Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Lomos de Atún Campomar en Agua y Sal 150g</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S/2.17</t>
+          <t>S/. 6.30</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Arroz Extra Paisana Bolsa 5 kg</t>
+          <t>Leche Condensada Nestlé Lata 393g</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S/. 20.70</t>
+          <t>S/5.60</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Panquita Sibarita Doypack 250 gr</t>
+          <t>Salsa Roja C/Carne Lista Molitalia Pomarola Doy Pack 390 g</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S/7.70</t>
+          <t>S/4.50</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chuño Universal Bolsa 180 g</t>
+          <t>Gelatina Universal de Fresa Sobre 150 g</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S/2.95</t>
+          <t>S/3.55</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Harina Preparada Nicolini 1kg</t>
+          <t>Sillao Aji-No-Sillao Botella 500 ml</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S/6.20</t>
+          <t>S/4.70</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lomos de Atún Campomar Light en Agua y Sal Lata 170 gr</t>
+          <t>Salsa Pomarola Molitalia Doy Pack 320 g</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S/6.30</t>
+          <t>S/3.10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Leche Condensada Nestlé Lata 393g</t>
+          <t>Salsa de Tomate Pomarola 145g</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S/5.20</t>
+          <t>S/. 1.65</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Salsa Roja C/Carne Lista Molitalia Pomarola Doy Pack 390 g</t>
+          <t>Mayonesa Light AlaCena 500g</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S/4.50</t>
+          <t>S/. 12.70</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gelatina Universal de Fresa Sobre 150 g</t>
+          <t>Mayonesa AlaCena 475g</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S/3.55</t>
+          <t>S/. 12.70</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sazonador Deli Arroz Pack 6 Unid</t>
+          <t>Canela Entera Sibarita Sobre 10 g</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S/1.59</t>
+          <t>S/3.29</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Salsa Pomarola Molitalia Doy Pack 320 g</t>
+          <t>Pack x6 Galletas Rellenas Oreo Original 36g</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S/3.10</t>
+          <t>S/4.10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pimienta Negra Molida Sibarita Sobre 6 Unid</t>
+          <t>Sixpack Galletas Saladas Club Social Sabor Original 26g</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S/3.89</t>
+          <t>S/3.70</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mayonesa Light AlaCena 500g</t>
+          <t>Pack x6 Galleta Pícaras La Clásica 40g</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S/12.70</t>
+          <t>S/4.60</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mayonesa AlaCena 475g</t>
+          <t>Sixpack Galletas Soda V Original 35g</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S/12.70</t>
+          <t>S/3.10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Canela Entera Sibarita Sobre 10 g</t>
+          <t>Galletas con Chispas de Chocolate Chips Ahoy Paquete 6 und</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S/3.29</t>
+          <t>S/6.19</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Saladas Club Social Sabor Original 26g</t>
+          <t>Galletas Integrales de Trigo y Miel Hony Bran Paquete 9 und</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S/3.04</t>
+          <t>S/6.20</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pack x6 Galleta Pícaras La Clásica 40g</t>
+          <t>Galletas de Chocolate Doña Pepa Field Paquete 23 g Pack 6 unid</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S/4.60</t>
+          <t>S/4.10</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Soda V Original 35g</t>
+          <t>Galletas Animalitos Vainilla Bolsa 150 g</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S/3.10</t>
+          <t>S/1.50</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Galletas con Chispas de Chocolate Chips Ahoy Paquete 6 und</t>
+          <t>Wafer Cua Cua Field Paquete 18 g Pack 9 unid</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>S/4.95</t>
+          <t>S/5.50</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Galletas Bañadas en Chocolate ChokoSoda Field Paquete 36 g Pack 6 unid</t>
+          <t>Spaghetti Nro 32 Molitalia 500g</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>S/4.16</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Galletas Saladas Rellenas con Crema Sabor Queso Ritz Sandwich Paquete 34 g Pack 6 unid</t>
+          <t>Pastina Tornillo Nicolini 250g</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S/3.28</t>
+          <t>S/1.35</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Galletas Agua Light Costa Pack 6un x 44g</t>
+          <t>Pastina Letras Molitalia Bolsa 250 g</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>S/3.70</t>
+          <t>S/1.40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Galletas Integrales de Trigo y Miel Hony Bran Paquete 9 und</t>
+          <t>Pastina Fusilli Tricolor Molitalia Bolsa 250 g</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>S/4.96</t>
+          <t>S/1.85</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Galletas de Chocolate Doña Pepa Field Paquete 23 g Pack 6 unid</t>
+          <t>Pastina Canuto Rayado Don Vittorio 250g</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>S/3.36</t>
+          <t>S/1.80</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Galletas Animalitos Vainilla Bolsa 150 g</t>
+          <t>Cabello de Ángel Nicolini 250g</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>S/1.50</t>
+          <t>S/1.35</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wafer Cua Cua Field Paquete 18 g Pack 9 unid</t>
+          <t>Cabello de Ángel Don Vittorio 250g</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>S/4.48</t>
+          <t>S/1.90</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Spaghetti Nro 32 Molitalia 500g</t>
+          <t>Lomos de Atún Campomar en Aceite Lata 170 gr</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>S/2.85</t>
+          <t>S/. 6.30</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Pastina Tornillo Nicolini 250g</t>
+          <t>Filete de Atún Campomar en Aceite Vegetal Lata 170 gr</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>S/1.35</t>
+          <t>S/. 5.90</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Pastina Letras Molitalia Bolsa 250 g</t>
+          <t>Sopa de Gallina con Fideos Ajinomen Sobre 80 g</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>S/1.40</t>
+          <t>S/1.60</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Pastina Fusilli Tricolor Molitalia Bolsa 250 g</t>
+          <t>Caldo de Carne Doña Gusta Caja 6un</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>S/1.85</t>
+          <t>S/1.59</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pastina Codo Rayado Nicolini 250g</t>
+          <t>Lenteja Bebé Tesoro Del Campo Bolsa 500 g</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>S/1.35</t>
+          <t>S/5.30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pastina Canuto Rayado Don Vittorio 250g</t>
+          <t>Frijol Panamito Costeño Bosa 500 g</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>S/1.80</t>
+          <t>S/5.70</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lomos de Atún Campomar en Aceite Lata 170 gr</t>
+          <t>Arveja Verde Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>S/6.30</t>
+          <t>S/4.10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Filete de Atún Campomar en Aceite Vegetal Lata 170 gr</t>
+          <t>Pallar Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>S/. 5.90</t>
+          <t>S/6.90</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sólido de Caballa Campomar en Aceite Lata 170 gr</t>
+          <t>Arroz Superior Valle Norte Primera cosecha Bolsa 5 Kg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>S/5.30</t>
+          <t>S/. 17.40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sopa de Gallina con Fideos Ajinomen Sobre 80 g</t>
+          <t>Arroz Superior Costeño Bolsa 5 Kg</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>S/1.60</t>
+          <t>S/. 20.65</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Lenteja Bebé Tesoro Del Campo Bolsa 500 g</t>
+          <t>Arroz Gran Reserva Extra Valle Norte Bolsa 5 Kg</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>S/5.30</t>
+          <t>S/. 20.50</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Frijol Panamito Costeño Bosa 500 g</t>
+          <t>Harina Sin Preparar Favorita 1kg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>S/3.99</t>
+          <t>S/5.50</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Garbanzos Costeño Bolsa 500 g</t>
+          <t>Filete de Atún Nicolini 160g</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>S/4.20</t>
+          <t>S/5.60</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Arveja Verde Costeño Bolsa 500 g</t>
+          <t>Fideo Spaghetti Nicolini 950g</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>S/2.87</t>
+          <t>S/3.40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pallar Costeño Bolsa 500 g</t>
+          <t>Fideo Fettuccini Don Vittorio 950g</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>S/4.83</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Frijol Panamito Tesoro Del Campo Bolsa 500 g</t>
+          <t>Pack x6 Galleta Pícaras La Menta 40g</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>S/4.95</t>
+          <t>S/4.60</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Frijol Canario Tesoro Del Campo Bolsa 500 g</t>
+          <t>Ají Panca en Pasta Cuisine &amp; Co 200g</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,1704 +1804,3324 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Arveja Verde Tesoro Del Campo Bolsa 500 g</t>
+          <t>Ajo en Pasta Cuisine &amp; Co 200g</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>S/3.70</t>
+          <t>S/6.90</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Trigo Mote Tesoro Del Campo Bolsa 500 g</t>
+          <t>Comino Molido Cuisine &amp; Co 18g</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>S/3.20</t>
+          <t>S/2.79</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Arroz Superior Valle Norte Primera cosecha Bolsa 5 Kg</t>
+          <t>Orégano Entero Cuisine &amp; Co 8g</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>S/. 17.40</t>
+          <t>S/2.10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Arroz Superior Costeño Bolsa 5 Kg</t>
+          <t>Pimienta Negra Molida Cuisine &amp; Co 18g</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>S/. 20.65</t>
+          <t>S/3.20</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Arroz Gran Reserva Extra Valle Norte Bolsa 5 Kg</t>
+          <t>Pack x12 Galleta Rellena con Crema Oreo 36g</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>S/. 22.89</t>
+          <t>S/6.90</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Filete de Atún Nicolini 160g</t>
+          <t>Vinagre Tinto Cuisine &amp; Co 1L</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>S/5.60</t>
+          <t>S/3.99</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pack x6 Galleta Pícaras La Menta 40g</t>
+          <t>Saborizante Sabor Esencia de Vainilla Umsha 90ml</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>S/4.60</t>
+          <t>S/2.00</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ají Panca en Pasta Cuisine &amp; Co 200g</t>
+          <t>Maicena Umsha 180g</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>S/5.17</t>
+          <t>S/2.75</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ajo en Pasta Cuisine &amp; Co 200g</t>
+          <t>Sazonador Sobre Gigante 32.4 g</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>S/5.17</t>
+          <t>S/1.05</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Comino Molido Cuisine &amp; Co 18g</t>
+          <t>Sazonador Ají Panca sin Picante Sobre 57 g 6 unid</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>S/2.09</t>
+          <t>S/2.05</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Orégano Entero Cuisine &amp; Co 8g</t>
+          <t>Galleta Sabor Vainilla Paquete 148 g</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>S/1.57</t>
+          <t>S/2.10</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pimienta Negra Molida Cuisine &amp; Co 18g</t>
+          <t>Pasta Corta Macarrón Bolsa 500 g</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>S/2.40</t>
+          <t>S/2.60</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fideo Corbata Colores Don Vittorio 250 g</t>
+          <t>Pasta Corta Tornillo Bolsa 500 g</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>S/1.80</t>
+          <t>S/2.60</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Pack x12 Galleta Rellena con Crema Oreo 36g</t>
+          <t>Trigo Mote Bolsa 350 g</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>S/6.31</t>
+          <t>S/2.55</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Vinagre Tinto Cuisine &amp; Co 1L</t>
+          <t>Maíz Pop Corn Bolsa 350 g</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>S/2.99</t>
+          <t>S/3.30</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Saborizante Sabor Esencia de Vainilla Umsha 90ml</t>
+          <t>Galletas Integrales Cracknel Integral Paquete 185 g</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>S/2.00</t>
+          <t>S/2.30</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Maicena Umsha 180g</t>
+          <t>Ketchup Libby'S</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>S/2.75</t>
+          <t>S/7.50</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sazonador Sobre Gigante 32.4 g</t>
+          <t>Pack x6 Galletas Rellenas Oreo Pastel de Cumpleaños 36g</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>S/1.05</t>
+          <t>S/4.10</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sazonador Ají Panca sin Picante Sobre 57 g 6 unid</t>
+          <t>Aceite de Oliva Cuisine &amp; Co Botella 1 Lt</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>S/2.05</t>
+          <t>S/29.90</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sal Fina 600 g</t>
+          <t>Galleta Ritz Tamaño Piqueo Caja 201 g</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>S/10.40</t>
+          <t>S/4.40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Galleta Sabor Vainilla Paquete 148 g</t>
+          <t>Tortillas de Maíz Clásica Cuisine &amp; Co Bolsa 150 g</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>S/1.68</t>
+          <t>S/3.20</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pasta Corta Macarrón Bolsa 500 g</t>
+          <t>Papas Fritas Tradicionales Cuisine &amp; Co Bolsa 180 g + Chifles Corte Delgado Cuisine &amp; Co Bolsa 200 g</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>S/2.60</t>
+          <t>S/11.99</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Pasta Corta Tornillo Bolsa 500 g</t>
+          <t>Harina Cuisine &amp; Co Sin Preparar Bolsa 1 Kg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>S/2.60</t>
+          <t>S/5.70</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Maíz Pop Corn Bolsa 350 g</t>
+          <t>Mostaza Cuisine &amp; Co Doypack 200 g</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>S/3.30</t>
+          <t>S/3.60</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Galletas Integrales Cracknel Integral Paquete 185 g</t>
+          <t>Arroz Extra Añejo Cuisine &amp; Co Bolsa 750 g</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>S/2.30</t>
+          <t>S/. 3.50</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Galletas Fruta Mixta Bolsa 450 g</t>
+          <t>Mayonesa Tradicional Cuisine &amp; Co Doypack Con Tapón 475 g</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>S/5.40</t>
+          <t>S/9.70</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pack x6 Galletas Rellenas Oreo Pastel de Cumpleaños 36g</t>
+          <t>Pastina Codo Rayado Don Vittorio 500g</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>S/3.28</t>
+          <t>S/3.30</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Aceite de Oliva Cuisine &amp; Co Botella 1 Lt</t>
+          <t>Aceite de Oliva Extra Virgen Cuisine &amp; Co Botella 1 lt</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>S/22.43</t>
+          <t>S/35.90</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Galleta Ritz Tamaño Piqueo Caja 201 g</t>
+          <t>Caldo Concentrado Sabor Tocino Doña Gusta Caja 42 g</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>S/3.52</t>
+          <t>S/1.59</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tortillas de Maíz Clásica Cuisine &amp; Co Bolsa 150 g</t>
+          <t>Filete De Atún En Agua y Sal Metro Lata 170 g</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>S/2.40</t>
+          <t>S/4.90</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Boliquesos Horneados Cheetos Bolsa 130 g</t>
+          <t>Aceite de Canola Cuisine &amp; Co Botella 1 lt</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>S/5.00</t>
+          <t>S/11.90</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Papas Fritas Tradicionales Cuisine &amp; Co Bolsa 180 g + Chifles Corte Delgado Cuisine &amp; Co Bolsa 200 g</t>
+          <t>Durazno En Mitades Metro Lata 820 g</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>S/8.99</t>
+          <t>S/7.90</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Harina Cuisine &amp; Co Sin Preparar Bolsa 1 Kg</t>
+          <t>Papas Fritas Crujientes Saladas Inka Chips 142g</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>S/4.80</t>
+          <t>S/7.50</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sillau Kikko Botella 1 Litro</t>
+          <t>Aceite Vegetal Nicolini 900ml</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>S/6.80</t>
+          <t>S/11.29</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Salsa Casera Molitalia 190g</t>
+          <t>Frijol Red Kidney Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>S/2.50</t>
+          <t>S/4.30</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Mostaza Cuisine &amp; Co Doypack 200 g</t>
+          <t>Pallar Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>S/2.70</t>
+          <t>S/5.60</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Arroz Extra Añejo Cuisine &amp; Co Bolsa 750 g</t>
+          <t>Lenteja Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>S/. 2.62</t>
+          <t>S/3.90</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mayonesa Tradicional Cuisine &amp; Co Doypack Con Tapón 475 g</t>
+          <t>Frijol Canario Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>S/7.28</t>
+          <t>S/5.70</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pastina Codo Rayado Don Vittorio 500g</t>
+          <t>Arroz Superior Metro Bolsa 750 g</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>S/3.30</t>
+          <t>S/. 3.10</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Aceite de Oliva Extra Virgen Cuisine &amp; Co Botella 1 lt</t>
+          <t>Arroz Integral Metro Bolsa 5 Kg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>S/26.93</t>
+          <t>S/. 19.20</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Chifles Corte Delgado Cuisine &amp; Co Bolsa 200 gr</t>
+          <t>Pastina Corbata Grande Don Vittorio 250g</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>S/5.70</t>
+          <t>S/1.80</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Filete De Atún En Agua y Sal Metro Lata 170 g</t>
+          <t>Pastina Corbata Chica Don Vittorio 250g</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>S/4.90</t>
+          <t>S/1.80</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Aceite de Canola Cuisine &amp; Co Botella 1 lt</t>
+          <t>Ketchup Libbys Doypack 200 g</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>S/8.93</t>
+          <t>S/4.29</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Papas Fritas Crujientes Saladas Inka Chips 142g</t>
+          <t>Arveja Verde Valle Norte Bolsa 500 g</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>S/7.50</t>
+          <t>S/4.29</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Aceite Vegetal Nicolini 900ml</t>
+          <t>Vinagre Blanco Del Firme Doy Pack 1000 ml</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>S/11.29</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Frijol Red Kidney Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Papas al Hilo Villa Natura Bolsa 150 g</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>S/4.01</t>
+          <t>S/5.50</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Pallar Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Saquillo De Arroz Maxima Contenido 10 kg</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>S/5.24</t>
+          <t>S/. 27.90</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Quinua Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Garbanzo Maixma Bolsa 500 g</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>S/6.74</t>
+          <t>S/4.80</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Lenteja Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Pallar Maxima Bolsa 500 g</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>S/3.67</t>
+          <t>S/5.95</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Frijol Canario Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Lentejon Maxima Bolsa 500 g</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>S/5.33</t>
+          <t>S/4.60</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Arroz Superior Metro Bolsa 750 g</t>
+          <t>Arveja Partida Maxima Bolsa 500 g</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>S/. 3.10</t>
+          <t>S/3.20</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Arroz Faraon Superior Añejo Rojo Bolsa 5 kg</t>
+          <t>Pasta Codo Rayado Molitalia Bolsa 250 g</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>S/. 19.90</t>
+          <t>S/1.40</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Arroz Integral Metro Bolsa 5 Kg</t>
+          <t>Fideos Farfalle Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>S/. 19.20</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Filete de Atún en Aceite Girasol y Sal Florida 170g</t>
+          <t>Fideos Capelli D'Angelo Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>S/4.90</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Pastina Corbata Grande Don Vittorio 250g</t>
+          <t>Spaguetti Nro 5 Cuisine &amp; Co Bolsa 500 gr</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>S/1.80</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pastina Corbata Chica Don Vittorio 250g</t>
+          <t>Filete Atún en Aceite de Girasol Real Tripack de 80 g c/u</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>S/1.80</t>
+          <t>S/11.00</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Arroz Faraon Extra Añejo Naranja Bolsa 10 kg</t>
+          <t>Arroz Extra Paisana Bolsa 5 kg</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>S/. 37.95</t>
+          <t>S/. 20.70</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Arroz Integral Metro Bolsa 750 g</t>
+          <t>Ajo Molido Sibarita Ajo Siba 250g</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>S/. 3.95</t>
+          <t>S/9.20</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Papas al Hilo Villa Natura Bolsa 150 g</t>
+          <t>Esencia de Vainilla Universal Frasco 100 ml</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>S/5.50</t>
+          <t>S/2.60</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Saquillo De Arroz Maxima Contenido 10 kg</t>
+          <t>Harina Sin Preparar Nicolini 1kg</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>S/. 27.90</t>
+          <t>S/5.60</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Maiz Pop Cron Maxima Bolsa 500 g</t>
+          <t>Polvo para Hornear Royal Sobre 20 g</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>S/3.30</t>
+          <t>S/1.20</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Garbanzo Maixma Bolsa 500 g</t>
+          <t>Crema de Leche Nestlé Lata 300 g</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>S/4.80</t>
+          <t>S/8.00</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Arveja Partida Maxima Bolsa 500 g</t>
+          <t>Galletas Rellenitas GN Chocolate Paquete 288 g</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>S/3.20</t>
+          <t>S/3.90</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lomito De Atun Normal Florida Lata 170 g</t>
+          <t>Cubito Sabor Gallina Maggi 25un.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>S/6.50</t>
+          <t>S/5.50</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Pasta Codo Rayado Molitalia Bolsa 250 g</t>
+          <t>Leche Condensada Gloria Doy Pack 200 g</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>S/1.40</t>
+          <t>S/4.40</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lentejas Paisana Bolsa 500 g</t>
+          <t>Mazamorra Morada en Polvo Royal Bolsa 140 g</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>S/5.49</t>
+          <t>S/3.39</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Fideos Capelli D'Angelo Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Gelatina Universal de Piña Sobre 150 g</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>S/2.17</t>
+          <t>S/3.55</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Spaguetti Nro 5 Cuisine &amp; Co Bolsa 500 gr</t>
+          <t>Gelatina en Polvo Sabor a Fresa Royal Sobre 160 g</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>S/2.17</t>
+          <t>S/3.59</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Filete Atún en Aceite de Girasol Real Tripack de 80 g c/u</t>
+          <t>Gelatina Diet Universal Piña Caja 19 g</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>S/11.00</t>
+          <t>S/3.19</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AMARILLIN X 250GR</t>
+          <t>Gelatina Sabor Fresa Diet Universal 19g</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>S/9.70</t>
+          <t>S/3.19</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ajo Molido Sibarita Ajo Siba 250g</t>
+          <t>Orégano Molido Sibarita Pack 6 Unid x 3.5 g</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>S/9.20</t>
+          <t>S/1.99</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Esencia de Vainilla Universal Frasco 100 ml</t>
+          <t>Vinagre Blanco Venturo Botella Plástica 600 ml</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>S/2.60</t>
+          <t>S/4.89</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Harina Sin Preparar Nicolini 1kg</t>
+          <t>Vinagre Blanco Florida Botella Plástica 625 ml</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>S/5.60</t>
+          <t>S/2.89</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Dulce de Leche El Manjar Nestlé Bolsa 200 g</t>
+          <t>Sazonador Deli Arroz Pack 6 Unid</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>S/3.70</t>
+          <t>S/1.59</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Crema de Leche Nestlé Lata 300 g</t>
+          <t>Sazonador Ajinomoto Sobre 100 g</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>S/7.99</t>
+          <t>S/2.80</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Galletas Rellenitas GN Chocolate Paquete 288 g</t>
+          <t>Sazonador Ajinomoto Bolsa 500 g</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>S/3.90</t>
+          <t>S/10.50</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cubito Sabor Gallina Maggi 25un.</t>
+          <t>Crema de Rocoto AlaCena Uchucuta 400g</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>S/5.50</t>
+          <t>S/. 12.70</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Leche Condensada Gloria Doy Pack 200 g</t>
+          <t>Pimienta Negra Molida Sibarita Sobre 6 Unid</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>S/4.40</t>
+          <t>S/3.89</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Mazamorra Morada en Polvo Royal Bolsa 140 g</t>
+          <t>Ketchup AlaCena 380g</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>S/2.71</t>
+          <t>S/8.70</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Gelatina Universal de Piña Sobre 150 g</t>
+          <t>Crema de Ají AlaCena Tarí 400g</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>S/3.55</t>
+          <t>S/. 12.70</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Gelatina en Polvo Sabor a Fresa Royal Sobre 160 g</t>
+          <t>Macaroni &amp; Cheese Kraft Original Caja 206 g</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>S/2.87</t>
+          <t>S/4.90</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Gelatina Diet Universal Piña Caja 19 g</t>
+          <t>Puré de Papa Knorr Sobre 125 g</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>S/2.90</t>
+          <t>S/4.29</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Gelatina Sabor Fresa Diet Universal 19g</t>
+          <t>Wafers Nik Costa Vainilla Pack 6un</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>S/2.90</t>
+          <t>S/3.50</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Mezcla para Apanar Ajinomix Ajinomoto Crocante Bolsa 96 g</t>
+          <t>Wafers Nik Costa Fresa Pack 6un</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>S/2.20</t>
+          <t>S/3.50</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mezcla para Apanar Ajinomix Ajinomoto Apanado Sobre 96 g</t>
+          <t>Sixpack Galletas Saladas Club Social Sabor a Mantequilla 26g</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>S/2.20</t>
+          <t>S/3.70</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Orégano Molido Sibarita Pack 6 Unid x 3.5 g</t>
+          <t>Sixpack Galletas Chomp Chocolate 42g</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>S/1.99</t>
+          <t>S/5.40</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Orégano Entero Sibarita Sobre 9 g</t>
+          <t>Sixpack Galletas Tentación Sabor Vainilla 47g</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>S/1.99</t>
+          <t>S/4.10</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Vinagre Blanco Venturo Botella Plástica 600 ml</t>
+          <t>Sixpack Galletas Glacitas Toffee 32g</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>S/4.89</t>
+          <t>S/4.70</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Vinagre Blanco Florida Botella Plástica 625 ml</t>
+          <t>Galletas Vainiya Costa Pack 6 Unid x 32 g</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>S/2.89</t>
+          <t>S/3.20</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sillao Aji-No-Sillao Botella 500 ml</t>
+          <t>Sixpack Wafer Sublime Power 25g</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>S/4.70</t>
+          <t>S/5.20</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sazonador Ajinomoto Sobre 250 g</t>
+          <t>Galletas Saladas Rellenas con Crema Sabor Queso Ritz Sandwich Paquete 34 g Pack 6 unid</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>S/6.00</t>
+          <t>S/4.00</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sazonador Ajinomoto Bolsa 500 g</t>
+          <t>Galletas Soda Light Costa Pack 6un x 42g</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>S/10.50</t>
+          <t>S/3.70</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Crema de Rocoto AlaCena Uchucuta 400g</t>
+          <t>Wafer Cua Cua Mini Field Bolsa 42 g</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>S/12.70</t>
+          <t>S/1.50</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ketchup Heinz Doy Pack 397 g</t>
+          <t>Galletas Saladas Cream Crackers Field Paquete 295 g</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>S/7.50</t>
+          <t>S/5.10</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Ketchup AlaCena 380g</t>
+          <t>Galletas Soda San Jorge Paquete 75 g</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>S/8.70</t>
+          <t>S/1.40</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Crema de Ají AlaCena Tarí 400g</t>
+          <t>Galletas Animalitos Vainilla Bolsa 500 g</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>S/12.70</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Comino Molido Sibarita Sobre 6 Unid</t>
+          <t>Tallarin Molitalia N°42 500g</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>S/3.89</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Ají Especial Panquita Sin Picante Sibarita Pack 3 Unid x 31.2 g</t>
+          <t>Pastina Macarrón Sopa Molitalia Bolsa 250 g</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>S/3.20</t>
+          <t>S/1.40</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Macaroni &amp; Cheese Kraft Original Caja 206 g</t>
+          <t>Fussilli de Verduras La Montanara Bolsa 500 g</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>S/4.90</t>
+          <t>S/6.40</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Puré de Papa Knorr Sobre 125 g</t>
+          <t>Pastina Codo Rayado Nicolini 250g</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>S/4.29</t>
+          <t>S/1.35</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Wafers Nik Costa Vainilla Pack 6un</t>
+          <t>Pastina Codo Chico Nicolini 250g</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>S/3.80</t>
+          <t>S/1.35</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Saladas Club Social Sabor a Mantequilla 26g</t>
+          <t>Pastina Caracol Chico Don Vittorio 250g</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>S/3.04</t>
+          <t>S/1.80</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Tentación Sabor Vainilla 47g</t>
+          <t>Pastina Canuto Chico Molitalia Bolsa 250 g</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>S/4.10</t>
+          <t>S/1.40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Sixpack Galletas Glacitas Toffee 32g</t>
+          <t>Pasta para Ensalada Tornillo Especial con Espinaca y Tomate Molitalia Bolsa 250 g</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>S/4.70</t>
+          <t>S/1.90</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Galletas Vainiya Costa Pack 6 Unid x 32 g</t>
+          <t>Fideos Linguine Molitalia 500g</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>S/3.20</t>
+          <t>S/2.70</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Sixpack Wafer Sublime Power 25g</t>
+          <t>Trozos de Atún Campomar en Aceite Vegetal Lata 170 g</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>S/5.20</t>
+          <t>S/5.60</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Galletas Soda Light Costa Pack 6un x 42g</t>
+          <t>Sólido de Caballa Campomar en Aceite Lata 170 gr</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>S/3.70</t>
+          <t>S/5.30</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Wafer Cua Cua Mini Field Bolsa 42 g</t>
+          <t>Sopa de Pollo con Fideos Ajinomen Sobre 80 g</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>S/1.20</t>
+          <t>S/1.60</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Galletas Animalitos Vainilla Bolsa 500 g</t>
+          <t>Sopa de Gallina Picante con Fideos Ajinomen Sobre 80 g</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>S/4.20</t>
+          <t>S/1.60</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Tallarin Molitalia N°42 500g</t>
+          <t>Sopa de Gallina Criolla con Fideos Ajinomen Sobre 80 g</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>S/2.85</t>
+          <t>S/1.60</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Fussilli de Verduras La Montanara Bolsa 500 g</t>
+          <t>Sopa de Carne con Fideos Ajinomen Sobre 80 g</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>S/6.40</t>
+          <t>S/1.60</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Pastina Corbata Nicolini 250g</t>
+          <t>Cubo Sabor Gallina Maggi 8un.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>S/1.35</t>
+          <t>S/4.50</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Pastina Codo Chico Nicolini 250g</t>
+          <t>Caldo de Costilla Doña Gusta Caja 6un</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>S/1.35</t>
+          <t>S/1.59</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Pastina Caracol Chico Don Vittorio 250g</t>
+          <t>Morón Americano Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>S/1.80</t>
+          <t>S/4.00</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Pastina Canuto Chico Nicolini 250g</t>
+          <t>Frijol Castilla Costeño Bolsa 500 g</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>S/1.35</t>
+          <t>S/4.90</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Pastina Canuto Chico Molitalia Bolsa 250 g</t>
+          <t>Frijol Panamito Tesoro Del Campo Bolsa 500 g</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>S/1.40</t>
+          <t>S/4.95</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Pasta para Ensalada Tornillo Especial con Espinaca y Tomate Molitalia Bolsa 250 g</t>
+          <t>Frijol Canario Tesoro Del Campo Bolsa 500 g</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>S/1.90</t>
+          <t>S/6.90</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Cabello de Ángel Don Vittorio 250g</t>
+          <t>Arveja Verde Tesoro Del Campo Bolsa 500 g</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>S/1.90</t>
+          <t>S/3.70</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Sopa de Pollo con Fideos Ajinomen Sobre 80 g</t>
+          <t>Trigo Mote Tesoro Del Campo Bolsa 500 g</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>S/1.60</t>
+          <t>S/3.20</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Sopa de Oriental con Fideos Ajinomen Sobre 80 g</t>
+          <t>Arroz Extra Costeño Bolsa 750 g</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>S/1.60</t>
+          <t>S/. 4.25</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Sopa de Gallina Picante con Fideos Ajinomen Sobre 80 g</t>
+          <t>Aceite Vegetal Primor Corazón 900ml</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>S/1.60</t>
+          <t>S/12.29</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Sopa de Gallina Criolla con Fideos Ajinomen Sobre 80 g</t>
+          <t>Aceite de Oliva El Olivar Extra Virgen 500ml</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>S/1.60</t>
+          <t>S/25.90</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Sopa de Carne con Fideos Ajinomen Sobre 80 g</t>
+          <t>Mostaza B&amp;D 200g</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>S/1.60</t>
+          <t>S/3.20</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Cubo Sabor Gallina Maggi 8un.</t>
+          <t>Harina Sin Preparar Molitalia 1kg</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>S/4.50</t>
+          <t>S/6.20</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Caldo de Costilla Doña Gusta Caja 6un</t>
+          <t>Harina Preparada Molitalia 1kg</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>S/1.59</t>
+          <t>S/6.40</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Caldo de Carne Doña Gusta Caja 6un</t>
+          <t>Ketchup AlaCena 200g</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>S/1.59</t>
+          <t>S/4.70</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Morón Americano Costeño Bolsa 500 g</t>
+          <t>Fideo Tallarín Nicolini 950g</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>S/2.80</t>
+          <t>S/3.40</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Frijol Castilla Costeño Bolsa 500 g</t>
+          <t>Fideo Fettuccini Don Vittorio 450g</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>S/4.90</t>
+          <t>S/3.50</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Papa Seca Tesoro Del Campo Bolsa 500 g</t>
+          <t>Fideo Linguini Grosso Don Vittorio 450g</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>S/5.20</t>
+          <t>S/3.50</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Arroz Extra Costeño Bolsa 750 g</t>
+          <t>Fideo Linguini Don Vittorio 450g</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>S/. 4.25</t>
+          <t>S/3.50</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Aceite de Oliva Filippo Berio Extra Virgen Botella 500 ml</t>
+          <t>Pack x6 Galletas Rellenas Casino Sabor Pie de Limón 43g</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>S/. 16.18</t>
+          <t>S/4.10</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Aceite de Oliva El Olivar Extra Virgen 500ml</t>
+          <t>Aceite de Coco Orgánico Cuisine &amp; Co 350ml</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>S/18.90</t>
+          <t>S/19.49</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Harina Sin Preparar Molitalia 1kg</t>
+          <t>Ají Amarillo en Pasta Cuisine &amp; Co 200g</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>S/6.20</t>
+          <t>S/6.90</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Harina Preparada Molitalia 1kg</t>
+          <t>Maní Tostado Cuisine &amp; Co 100g</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>S/6.40</t>
+          <t>S/4.20</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Mostaza AlaCena 400g</t>
+          <t>Palillo Molillo Cuisine &amp; Co 15g</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>S/6.30</t>
+          <t>S/1.80</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Ketchup AlaCena 200g</t>
+          <t>Romero en Hojas Secas Cuisine &amp; Co 4g</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>S/4.70</t>
+          <t>S/1.90</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Fideo Linguini Grosso Don Vittorio 450g</t>
+          <t>Pimienta Negra Entera Cuisine &amp; Co 15g</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>S/3.50</t>
+          <t>S/2.80</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Fideo Linguini Don Vittorio 450g</t>
+          <t>Laurel en Hojas Secas Cuisine &amp; Co 3g</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>S/3.50</t>
+          <t>S/1.60</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Pack x6 Galletas Rellenas Casino Sabor Pie de Limón 43g</t>
+          <t>Hongo Seco Cuisine &amp; Co 10g</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>S/4.10</t>
+          <t>S/2.90</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Aceite de Coco Orgánico Cuisine &amp; Co 350ml</t>
+          <t>Fideo Corbata Colores Don Vittorio 250 g</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>S/19.49</t>
+          <t>S/1.80</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Ají Amarillo en Pasta Cuisine &amp; Co 200g</t>
+          <t>Sazonador de Pop Corn Sabor Mantequilla Costeño Pops 81g</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>S/5.17</t>
+          <t>S/8.50</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Maní Tostado Cuisine &amp; Co 100g</t>
+          <t>Vinagre Tinto Cuisine &amp; Co 500ml</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>S/3.15</t>
+          <t>S/2.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Atún Desmenuzado Máxima 170g</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>S/3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Gelatina Umsha Sabor Fresa 150g</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>S/3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sal de Maras para Cocina Cuisine &amp; Co 500g</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>S/10.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Salsa Blanca Completa Don Vittorio 390g</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>S/7.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Gelatina Umsha Sabor Piña 150g</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>S/3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Gelatina Umsha Sabor Uva 150g</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>S/3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Flan Umsha Sabor Vainilla 90g</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>S/2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Pasas Morenas Vallealto 250g</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>S/7.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Ajo Molido Piki 1kg</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>S/15.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Hongos Secos con Laurel Toña 13g</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>S/3.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Salsa de Ají Amarillo Envasado 550 g</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>S/16.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Pimienta 24.3 g</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>S/1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Vinagre Blanco Sibarita Botella 500 ml</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>S/1.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Vinagre Tinto Sibarita Botella 500 ml</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>S/1.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Sal Fina 600 g</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>S/10.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Galleta de Chocolate con Crema Oreo Paquete 216 g + Galleta de Soda Field Paquete 204 g</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>S/6.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Galletas Sabor Vainilla Munición Bolsa 450 g</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>S/5.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Galletas Fruta Mixta Bolsa 450 g</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>S/5.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Kétchup Cuisine &amp; Co Frasco 400 g</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>S/8.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Vinagre de Manzana Frasco 500 ml</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>S/9.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Chocolate con Leche Triángulo Barra 30 g Caja 10 unid</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>S/12.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Chocolate Bitter con Maní Sublime Tableta 40 g Caja 8 unid</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>S/15.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Chocolate Relleno con Crema de Maní Princesa Barra 30 g Caja 10 unid</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>S/12.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Pepinillos Encurtidos Cuisine &amp; Co Pote 510 g</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>S/6.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Leche Condensada Gloria Doypack 90 g</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>S/2.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Almendras Cuisine&amp;Co Pote 100 g</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>S/6.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Algarrobina Cuisine &amp; Co Frasco 480 g</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>S/15.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Galleta de Chocolate con Crema Oreo Paquete 216 g + Galleta de Chocolate Doña Pepa Paquete 138 g</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>S/7.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Tortillas de Maíz Picante Cuisine &amp; Co Bolsa 150 g</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>S/3.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Tortillas de Maíz Clásica Cuisine &amp; Co Bolsa 65 g</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>S/1.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Boliquesos Horneados Cheetos Bolsa 130 g</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>S/5.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Canchita Andina Cuisine &amp; Co Pote 180 g</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>S/4.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Pasta de Rocoto Cuisine &amp; Co Doypack 85 g</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>S/3.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Solido De Atún En Aceite De Girasol Cuisine&amp;Co Lata 170 g</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>S/5.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Macaroni &amp; Cheese Cuisine &amp; Co Sabor Original Caja 226g</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>S/5.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Papas Fritas Amarillas Tiyapuy Bolsa 160 g</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>S/. 7.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Papas Fritas Nativas Tiyapuy Bolsa 160 g</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>S/. 7.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Salsa Casera Molitalia 190g</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>S/2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Pasas Morenas Cuisine&amp;Co Bolsa 180 g</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>S/4.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Sopa Instantánea Sabor a Gallina Picante Ajinomen Vaso 51 g</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>S/3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Pecanas Peladas Frutos y Snacks Seleccionados Cuisine &amp; Co 100g</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>S/12.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Almendras Naturales Frutos y Snacks Seleccionados Cuisine &amp; Co Bolsa 100 gr</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>S/7.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Salsa de Tomate Cuisine &amp; Co Doypack 380 g</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>S/4.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Salsa De Culantro Con Espinaca Culantrito Sibarita Doypack 250 g</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>S/3.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Papas Lays Clásicas Bolsa 160 g + Tortillas de Maíz Queso Atrevido Doritos Bolsa 210 g</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>S/11.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Papas Fritas Nativas Inka Chips Bolsa 170 g</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>S/8.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Arroz Extra Natural Gran Chalan Bolsa 750 gr</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>S/. 3.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Galletas Saladas Jamón Ahumado Crackelet Costa Bolsa 150 gr</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>S/3.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Papas Fritas Crujientes Sabor Jalapeño Inka Chips 142g</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>S/7.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Galletas De Arroz Cuisine &amp; Co Doypack 120 g</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>S/6.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Palillo Sibarita Bolsa 63 gr</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>S/2.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Tallarin Instantáneo Saltado Ajinomen Sobre 100 g</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>S/1.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Tallarín Rojo Instantáneo Ajinomen</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>S/1.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Sopa Instantánea Sabor a Gallina Ajinomen Vaso 51 g</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>S/3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Sillao Aji-No-Sillao Botella 150 ml</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>S/2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Mix Peruano de Snacks Cuisine &amp; Co 175g</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>S/7.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Mix Tropical de Snacks Cuisine &amp; Co 175g</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>S/6.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Papas Fritas Tradicionales Cuisine &amp; Co Bolsa 180 gr</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>S/6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Chifles Corte Delgado Cuisine &amp; Co Bolsa 200 gr</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>S/6.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Camote Frito Cuisine &amp; Co Bolsa 130 gr</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>S/5.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Ajo Molido Sibarita Sobre 100 g</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>S/2.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Fusilli Integrali La Molisana Paquete 500 g</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>S/. 7.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Galleta Chokis Chispas Clásica Pack 6un</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>S/8.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Cheetos Mega Queso Frito Lay 200g</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>S/6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Galletas de Chocolate Rellenas con Crema Oreo Mini Bolsa 40 g</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>S/1.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Combo Papas Lays Clásicas Bolsa 160 gr + Piqueo Snax Original Bolsa 200 gr</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>S/11.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Harina Sin Preparar Blanca Flor 1kg</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>S/7.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Arroz Faraon Superior Añejo Rojo Bolsa 5 kg</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>S/. 19.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Pastina Canuto Chico Alianza 250g</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>S/1.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Pastina Canuto Alianza 250g</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>S/1.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Maní Oriental Granuts 180g</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>S/6.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Arroz Rompe Olla Superior Añejado 5kg</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>S/. 19.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Galletas de Maíz Horneadas Sin Gluten Salmas Sanissimo Caja 144 g</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>S/10.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Arroz Faraón Extra Añejo Naranja Bolsa 750 g</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>S/. 3.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Maíz Pop Corn Valle Norte Bolsa 500 g</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>S/5.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Frijol Canario Valle Norte Bolsa 500 g</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>S/7.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Durazno En Mitades Arica Contenido 820 g</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>S/9.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Salsa Verde Completa Don Vittorio 190g</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>S/4.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Salsa Verde Completa Don Vittorio 390g</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>S/7.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Galletas de Arroz Clásicas Sin Gluten Costeño Doypack 150 g</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>S/5.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Galletas con Grageas Chips Fiesta Paquete 36 g Pack 6 unid</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>S/4.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal Cocinero Botella 5 Litros</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>S/63.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Pack x6 Galleta Pícaras La Chips 42g</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>S/4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Arroz Integral Metro Bolsa 750 g</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>S/. 3.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Grated De Atun En Aceite Vegetal Florida Lata 170 g</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>S/4.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Filete de Atún Claro Campomar en Aceite Lata 170 gr</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>S/6.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Solido De Atún En Agua y Sal Metro Lata 170 g</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>S/5.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Bombones con Rellenos Surtidos Nestlé Multipack 45un</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>S/19.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puré de Papa Nicolini 125g</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>S/3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Papas Pringles Original 124g</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>S/8.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Trigo Mote Maxima Bolsa 500 g</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>S/3.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Maiz Pop Cron Maxima Bolsa 500 g</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>S/3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Lomito De Atun Normal Florida Lata 170 g</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>S/6.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Aceite Vegetal Cocinero 900ml</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>S/11.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Maiz Pop Corn Paisana Bolsa 500 g</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>S/4.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Lentejas Paisana Bolsa 500 g</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>S/5.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Lenteja Baby Paisana Bolsa 500 g</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>S/5.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Sopa Fuchi Fu Provenzal 55 g</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>S/3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Aceite Ajonjoli Olivos Del Sur 100 ml</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>S/11.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Linguine Nro 77 Cuisine &amp; Co Bolsa 500 gr</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>S/2.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Mix de Frutos Secos con Arándanos Granuts 200g</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>S/10.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Comino Molido Badía Frasco 2 Onzas</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>S/9.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>PIMIENTA NEGRA</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>S/9.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Sillau #06 Kikko Botella 350 ml</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>S/3.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Manjarblanco Bazo Velarde 200g</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>S/4.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Dulce de Leche El Manjar Nestlé Bolsa 200 g</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>S/3.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Maizena Universal Bolsa 180 g</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>S/3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Pre Pizza Unión Bolsa 270 g</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>S/7.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Chocolate KitKat Tableta 41.5 g</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>S/3.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Chocolate con Leche Triángulo Barra 30 g</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>S/1.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Cubito Sabor Carne Maggi 25un.</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>S/5.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Harina Preparada Favorita 1kg</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>S/5.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Papas Fritas Crujientes Sabor Cebolla Caramelilzada y BBQ Inka Chips Bolsa 142 g</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>S/7.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Popcorn Microondas Tripack Act II Lover</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>S/11.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Crema Instantánea Maggi Sabor Espárragos 65g</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>S/3.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Pasas Morenas Vallealto 150g</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>S/5.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Galleta Integrales Costa Six Pack</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>S/3.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Premezcla de Keke Casero Blanca Flor Sabor Vainilla 800g</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>S/11.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Flan Universal Vainilla Caja 150 g</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>S/4.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Gelatina Universal de Naranja Sobre 150 g</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>S/3.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Gelatina Universal de Limón Sobre 150 g</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>S/3.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Gelatina en Polvo Sabor a Piña Royal Sobre 160 g</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>S/3.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Gelatina en Polvo Sabor a Naranja Royal Sobre 160 g</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>S/3.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Gelatina en Polvo Sabor a Cereza Royal Sobre 160 g</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>S/3.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Gelatina Diet Universal Naranja Caja 19 g</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>S/3.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Gelatina Sabor Limón Diet Universal 19g</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>S/3.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Mezcla para Apanar Ajinomix Ajinomoto Crocante Bolsa 96 g</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>S/2.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Mezcla para Apanar Ajinomix Ajinomoto Apanado Sobre 96 g</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>S/2.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Mezcla para Apanar Maggi Apanado 80g</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>S/3.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Orégano Entero Sibarita Sobre 9 g</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>S/1.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Vinagre Tinto Venturo Botella Plástica 600 ml</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>S/4.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Tuco Sibarita Pack 6 Unid x 9.30 g</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>S/4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Sillau Aji-No-Sillao Frasco 280 ml</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>S/3.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Sazonador Sibarita Frasco 80 g</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>S/5.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Salsa Roja Completa Don Vittorio 200g</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>S/3.40</t>
         </is>
       </c>
     </row>
